--- a/v3/example/ExamplePragma.xlsx
+++ b/v3/example/ExamplePragma.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="15420"/>
+    <workbookView windowWidth="18480" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+  <si>
+    <t>表类型</t>
+  </si>
   <si>
     <t>表名</t>
   </si>
@@ -25,7 +28,19 @@
     <t>垂直表</t>
   </si>
   <si>
-    <t>ExampleData+ExampleData2</t>
+    <t>符号表</t>
+  </si>
+  <si>
+    <t>ExampleType.xlsx</t>
+  </si>
+  <si>
+    <t>数据表</t>
+  </si>
+  <si>
+    <t>ExampleData</t>
+  </si>
+  <si>
+    <t>ExampleData.xlsx+ExampleData2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -35,8 +50,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -59,22 +74,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,14 +105,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,21 +120,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,9 +141,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,14 +166,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,9 +204,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,13 +233,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,31 +329,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,133 +401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,17 +445,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,51 +496,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -524,6 +521,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -532,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,31 +559,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,100 +592,100 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,19 +1021,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFC23"/>
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:16383">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:16384">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1043,9 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -17408,13 +17425,28 @@
       <c r="XFA1" s="3"/>
       <c r="XFB1" s="3"/>
       <c r="XFC1" s="3"/>
+      <c r="XFD1" s="3"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:1">
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="16.5"/>
+    <row r="3" s="2" customFormat="1" ht="16.5" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="4" s="2" customFormat="1" ht="16.5"/>
     <row r="5" s="2" customFormat="1" ht="16.5"/>
     <row r="6" s="2" customFormat="1" ht="16.5"/>
@@ -17434,7 +17466,6 @@
     <row r="20" s="2" customFormat="1" ht="16.5"/>
     <row r="21" s="2" customFormat="1" ht="16.5"/>
     <row r="22" s="2" customFormat="1" ht="16.5"/>
-    <row r="23" s="2" customFormat="1" ht="16.5"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
